--- a/data/epa_xls/lmopdatawy.xlsx
+++ b/data/epa_xls/lmopdatawy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26DC57-8B65-4FCC-96CA-889D545BFE44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A4F7FC-AD7D-4CE2-B1B3-9F78BAD064BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{651CE5BD-ED04-4014-A1D6-F2EDA7670D3A}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D3A48D09-22EF-4392-8EBB-F364D60FFB89}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A185A1D2-041B-4CFD-A077-A54B45823641}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{75913764-E6A2-4779-9C1C-67BFB487F975}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9761B9D6-E6FB-45C3-81AB-750BE4A83B46}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0C5BB061-286E-4E79-BE5D-3E4E566399AA}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7D394F28-7D15-4157-9EC7-0F0AFDC09EA1}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EDD0D8BC-2024-4AD9-8F10-200C283BC9E8}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{CC4A5BDB-304B-4214-AC46-BFE0BAAAE72A}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{74A3E10A-5367-4F72-A53B-58DED987D579}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{CC639558-2CE5-4828-8628-9AEC5A1C857E}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{018DF271-E17A-4E29-90D7-2777CC904FF1}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2686BB98-82C7-415D-9001-C2379DAD5A69}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9F2E4B93-C9E8-448D-965B-42003E0F0C89}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{46CC0F77-23F2-470B-B8A6-8F1A5AE70D52}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{718DC166-67A5-4FE3-904D-E72509C8F959}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{AD660579-EDBB-4B0B-8098-4ACE3A59A190}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{ECF432C2-0137-4FF8-80BA-549A2C155D08}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{D0026E46-96A7-4A5C-A87F-4B4659912D7F}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{5EB29B20-5348-4054-9E0E-880B326853BA}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{8D868E43-92E6-47CD-BE58-B24A31D47122}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{4AF363B4-5DF2-4BC2-93C1-B0D693B6905A}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{3D7B8E7C-8A27-4E68-ADBF-896CB5C7EBAF}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{AD072C5D-5158-44F0-A8FF-8E7A0983663C}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{72E1D514-C101-47D5-8ABE-708FB00E83E4}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A40F38E2-C2AA-4873-A504-1B77F30F4603}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{22C49379-41DB-4C14-909B-8743220E5DA9}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{93974D1C-AE70-47CA-AE19-017522F78381}">
       <text>
         <r>
           <rPr>
@@ -425,21 +425,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{DA9B4813-3BB1-417A-A108-D16138AAF7EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{94A01A14-EF32-4BE4-96F0-FBB2BB337402}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{2E42C9CB-4642-4E82-AC6D-60142A42A972}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{5CB0E399-C785-4421-9091-7537BCC53166}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{12262463-8AEA-4414-8CFB-9F0F14943977}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -696,9 +707,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -981,11 +989,32 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>1005225</t>
+  </si>
+  <si>
+    <t>82636</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1277,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1388,6 +1417,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1815,10 +1847,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1840,36 +1872,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -1884,70 +1916,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="57"/>
+      <c r="A12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
@@ -1956,20 +1988,20 @@
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="45"/>
+      <c r="A21" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
@@ -1980,16 +2012,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2011,14 +2043,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Wyoming</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2053,13 +2085,13 @@
     <col min="25" max="25" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="43" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2142,45 +2174,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AF1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AG1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6">
         <v>20722</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I2" s="6">
         <v>44.280999999999999</v>
@@ -2189,10 +2224,10 @@
         <v>-105.512</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M2" s="6">
         <v>1987</v>
@@ -2201,7 +2236,7 @@
         <v>2052</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="7">
         <v>915273</v>
@@ -2210,55 +2245,56 @@
         <v>2017</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-    </row>
-    <row r="3" spans="1:32" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1005225</v>
+      <c r="AG2" s="6"/>
+    </row>
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B3" s="6">
         <v>11100</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="5">
-        <v>82636</v>
+      <c r="H3" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="I3" s="6">
         <v>42.873192000000003</v>
@@ -2267,10 +2303,10 @@
         <v>-106.283097</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M3" s="6">
         <v>1966</v>
@@ -2279,7 +2315,7 @@
         <v>2072</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="7">
         <v>4006882</v>
@@ -2288,59 +2324,60 @@
         <v>2017</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S3" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="T3" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-    </row>
-    <row r="4" spans="1:32" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6">
         <v>2196</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I4" s="6">
         <v>41.134999999999998</v>
@@ -2349,76 +2386,77 @@
         <v>-105.005</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="6">
         <v>1966</v>
       </c>
       <c r="N4" s="6">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="7">
+        <v>4088340</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" s="7">
-        <v>4026316</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-    </row>
-    <row r="5" spans="1:32" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG4" s="6"/>
+    </row>
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="6">
         <v>21136</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="I5" s="6">
         <v>41.230851999999999</v>
@@ -2427,74 +2465,75 @@
         <v>-104.336488</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M5" s="6">
         <v>1981</v>
       </c>
       <c r="N5" s="6">
-        <v>2060</v>
+        <v>2146</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="7">
+        <v>202623</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" s="7">
-        <v>195697</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-    </row>
-    <row r="6" spans="1:32" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>11140</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="I6" s="10">
         <v>44.804335000000002</v>
@@ -2503,17 +2542,17 @@
         <v>-106.923406</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M6" s="10">
         <v>1984</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11">
         <v>400637</v>
@@ -2522,33 +2561,34 @@
         <v>2008</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG6">
     <sortCondition ref="C2:C6"/>
     <sortCondition ref="U2:U6"/>
   </sortState>
@@ -2557,7 +2597,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Wyoming&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Wyoming&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -2569,7 +2609,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2587,10 +2627,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2598,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2606,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2614,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2622,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2630,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2638,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2646,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2654,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2662,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2670,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2678,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2686,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2694,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2702,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2710,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2718,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2726,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -2734,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2742,7 +2782,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2750,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2758,7 +2798,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2766,7 +2806,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2774,7 +2814,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2782,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2790,7 +2830,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2798,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2806,47 +2846,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>64</v>
+      <c r="A30" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>65</v>
+      <c r="A31" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>67</v>
+      <c r="B34" s="42" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
